--- a/src/test/java/com/banking/testData/LoginData.xlsx
+++ b/src/test/java/com/banking/testData/LoginData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Desktop\selenium\SeleniumMaven\src\test\java\com\banking\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5628CC6-A528-44E4-A221-EEFBD1975D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +39,6 @@
     <t>dYpajun</t>
   </si>
   <si>
-    <t>mngr539545</t>
-  </si>
-  <si>
     <t>mngr539549</t>
   </si>
   <si>
@@ -50,9 +48,6 @@
     <t>mngr535546</t>
   </si>
   <si>
-    <t>mngr534547</t>
-  </si>
-  <si>
     <t>dYpakun</t>
   </si>
   <si>
@@ -60,12 +55,18 @@
   </si>
   <si>
     <t>dYpajucn</t>
+  </si>
+  <si>
+    <t>mngr544879</t>
+  </si>
+  <si>
+    <t>UjYvAta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,11 +116,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B9" totalsRowShown="0">
-  <autoFilter ref="A1:B9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B9" totalsRowShown="0">
+  <autoFilter ref="A1:B9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="UserName"/>
-    <tableColumn id="2" name="Password"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="UserName"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Password"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -387,11 +388,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,42 +411,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -458,7 +459,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -466,10 +467,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
